--- a/data/trans_dic/P04B1_1_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P04B1_1_2023-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.4780026048715562</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.4602562713958493</v>
+        <v>0.4602562713958494</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.4681479935826791</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4297222384529863</v>
+        <v>0.4273938963821503</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4264058684050457</v>
+        <v>0.4239761161611185</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4393953909803389</v>
+        <v>0.4409251976718804</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.529804650159568</v>
+        <v>0.5300700928481585</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4960411271379027</v>
+        <v>0.4949876970197033</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.498965335999421</v>
+        <v>0.4987854436069846</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.5914492755514589</v>
+        <v>0.591449275551459</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.5919423196923296</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.557164969102257</v>
+        <v>0.5580317354806428</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5667510753092884</v>
+        <v>0.5668198864711469</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5705862694761938</v>
+        <v>0.5707002990453712</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.626319605840211</v>
+        <v>0.6249222798651126</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6162342214256301</v>
+        <v>0.6183887496410729</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6134129632319996</v>
+        <v>0.6123852505259966</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.6838998188394738</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6908349832750166</v>
+        <v>0.6908349832750165</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6873649320028277</v>
+        <v>0.6873649320028276</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6514118152660361</v>
+        <v>0.6545301835960631</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6659496429554477</v>
+        <v>0.6654859843813701</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6645165639555699</v>
+        <v>0.6688065514356859</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7126658127700143</v>
+        <v>0.7144003998747364</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7173205825106648</v>
+        <v>0.7174610271683267</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7067602805336277</v>
+        <v>0.70914578243824</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.8435110215717285</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8127991768836722</v>
+        <v>0.8127991768836724</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.8286766756307362</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8150652715740017</v>
+        <v>0.8173723490409636</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7833583295154776</v>
+        <v>0.7876603278050299</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.809993201946719</v>
+        <v>0.8114653392518886</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8654292818318104</v>
+        <v>0.8666460492457363</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8344865796892598</v>
+        <v>0.8357317647714492</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8473708868692817</v>
+        <v>0.8451128661388903</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6736895387931393</v>
+        <v>0.6736895387931392</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6522379768434873</v>
+        <v>0.6522379768434874</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6626427429738321</v>
+        <v>0.6626427429738322</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6564647137983239</v>
+        <v>0.6556915926642438</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6386079567909378</v>
+        <v>0.6391311898580416</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6515170152569949</v>
+        <v>0.6510770474008122</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6903399362188782</v>
+        <v>0.6908343741906882</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6666513995291484</v>
+        <v>0.6679360653796499</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6740526044823946</v>
+        <v>0.6729912841201792</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>213888</v>
+        <v>212729</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>265027</v>
+        <v>263517</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>491803</v>
+        <v>493516</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>263703</v>
+        <v>263835</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>308308</v>
+        <v>307653</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>558478</v>
+        <v>558277</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>533480</v>
+        <v>534310</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>631157</v>
+        <v>631233</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1181758</v>
+        <v>1181995</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>599695</v>
+        <v>598357</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>686263</v>
+        <v>688662</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1270458</v>
+        <v>1268329</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>681213</v>
+        <v>684474</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>695425</v>
+        <v>694940</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1388845</v>
+        <v>1397811</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>745269</v>
+        <v>747083</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>749069</v>
+        <v>749216</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1477135</v>
+        <v>1482120</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>794168</v>
+        <v>796416</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>713126</v>
+        <v>717043</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1526598</v>
+        <v>1529373</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>843241</v>
+        <v>844426</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>759671</v>
+        <v>760804</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1597044</v>
+        <v>1592788</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2281435</v>
+        <v>2278748</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2356324</v>
+        <v>2358255</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4668196</v>
+        <v>4665043</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2399163</v>
+        <v>2400881</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2459798</v>
+        <v>2464538</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4829666</v>
+        <v>4822061</v>
       </c>
     </row>
     <row r="24">
